--- a/英语教招/短语.xlsx
+++ b/英语教招/短语.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="11780"/>
+    <workbookView windowWidth="26220" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194">
   <si>
     <t>show off</t>
   </si>
@@ -23,6 +23,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF3C464F"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>put off</t>
     </r>
     <r>
@@ -82,6 +88,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF3C464F"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>self-conscious</t>
     </r>
     <r>
@@ -198,6 +210,728 @@
   </si>
   <si>
     <t>着手做</t>
+  </si>
+  <si>
+    <t> in his thirties</t>
+  </si>
+  <si>
+    <t>在他三十多岁时</t>
+  </si>
+  <si>
+    <t>on our own</t>
+  </si>
+  <si>
+    <t>凭我们自己，靠我们自己</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF3C464F"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>in the flesh</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF3C464F"/>
+        <rFont val="PingFang SC"/>
+        <charset val="134"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <t>亲自</t>
+  </si>
+  <si>
+    <t>of our own</t>
+  </si>
+  <si>
+    <t>属于我们自己的</t>
+  </si>
+  <si>
+    <t>relate to</t>
+  </si>
+  <si>
+    <t>涉及…，与…有关</t>
+  </si>
+  <si>
+    <t>Worry about</t>
+  </si>
+  <si>
+    <t>担心</t>
+  </si>
+  <si>
+    <t>fall in love with</t>
+  </si>
+  <si>
+    <t>爱上</t>
+  </si>
+  <si>
+    <t>think about</t>
+  </si>
+  <si>
+    <t>考虑</t>
+  </si>
+  <si>
+    <t>get along well with</t>
+  </si>
+  <si>
+    <t>after all</t>
+  </si>
+  <si>
+    <t>毕竟</t>
+  </si>
+  <si>
+    <t>therefore</t>
+  </si>
+  <si>
+    <t>因此</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF3C464F"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>above all</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF3C464F"/>
+        <rFont val="PingFang SC"/>
+        <charset val="134"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <t>最重要的是</t>
+  </si>
+  <si>
+    <t>have a ides of...</t>
+  </si>
+  <si>
+    <t>知道...</t>
+  </si>
+  <si>
+    <t>at great length</t>
+  </si>
+  <si>
+    <t>详细地；细致地</t>
+  </si>
+  <si>
+    <t>none the wiser</t>
+  </si>
+  <si>
+    <t>仍然不懂</t>
+  </si>
+  <si>
+    <t>I'm none the wiser</t>
+  </si>
+  <si>
+    <t>rid of </t>
+  </si>
+  <si>
+    <t>摆脱</t>
+  </si>
+  <si>
+    <t>rob sb of sth</t>
+  </si>
+  <si>
+    <t>抢劫</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF3C464F"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>inform of</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF3C464F"/>
+        <rFont val="PingFang SC"/>
+        <charset val="134"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <t>通知</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF3C464F"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>remind of</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF3C464F"/>
+        <rFont val="PingFang SC"/>
+        <charset val="134"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <t>使想起</t>
+  </si>
+  <si>
+    <t>hold up</t>
+  </si>
+  <si>
+    <t>举起，耽搁</t>
+  </si>
+  <si>
+    <t>back up</t>
+  </si>
+  <si>
+    <t>倒退，后退</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF3C464F"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>look up</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF3C464F"/>
+        <rFont val="PingFang SC"/>
+        <charset val="134"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <t>抬头看，查找</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF3C464F"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>rush up</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF3C464F"/>
+        <rFont val="PingFang SC"/>
+        <charset val="134"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <t>催促</t>
+  </si>
+  <si>
+    <t>sth. costs sb. .../it costs sb. ... to do sth.</t>
+  </si>
+  <si>
+    <t>做某事花费某人…（时间/金钱），主语是物</t>
+  </si>
+  <si>
+    <t>sb. pay(s) ... for sth</t>
+  </si>
+  <si>
+    <t>某人花…钱买某物，其主语是人</t>
+  </si>
+  <si>
+    <t>sb. spend(s) ... on sth./in doing sth.</t>
+  </si>
+  <si>
+    <t>某人把时间花在做某事/某物上，主要指花费时间，且主语是人</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF3C464F"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>the key to (doing) sth.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF3C464F"/>
+        <rFont val="PingFang SC"/>
+        <charset val="134"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <t>…的关键</t>
+  </si>
+  <si>
+    <t>hold on to</t>
+  </si>
+  <si>
+    <t>紧紧抓住</t>
+  </si>
+  <si>
+    <t>put up with</t>
+  </si>
+  <si>
+    <t>忍受（bear)</t>
+  </si>
+  <si>
+    <t>break away from</t>
+  </si>
+  <si>
+    <t>脱离，断绝与…的关系</t>
+  </si>
+  <si>
+    <t>get into</t>
+  </si>
+  <si>
+    <t>进入，穿上</t>
+  </si>
+  <si>
+    <t>take out</t>
+  </si>
+  <si>
+    <t>拿出</t>
+  </si>
+  <si>
+    <t>pay off</t>
+  </si>
+  <si>
+    <t>还清，得到回报</t>
+  </si>
+  <si>
+    <t>set out</t>
+  </si>
+  <si>
+    <t>出发，动身</t>
+  </si>
+  <si>
+    <t>go through</t>
+  </si>
+  <si>
+    <t>经受，通过</t>
+  </si>
+  <si>
+    <t>go against </t>
+  </si>
+  <si>
+    <t>违反，反对</t>
+  </si>
+  <si>
+    <t>go into</t>
+  </si>
+  <si>
+    <t>进入，研究</t>
+  </si>
+  <si>
+    <t>go after</t>
+  </si>
+  <si>
+    <t>追逐，追求</t>
+  </si>
+  <si>
+    <t>care for</t>
+  </si>
+  <si>
+    <t>关心，照顾</t>
+  </si>
+  <si>
+    <t>apply for</t>
+  </si>
+  <si>
+    <t>申请</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF3C464F"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>send for</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF3C464F"/>
+        <rFont val="PingFang SC"/>
+        <charset val="134"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <t>派人去请（拿）</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF3C464F"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>run for</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF3C464F"/>
+        <rFont val="PingFang SC"/>
+        <charset val="134"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <t>竞选</t>
+  </si>
+  <si>
+    <t>take a big jump forward</t>
+  </si>
+  <si>
+    <t>取得很大进展</t>
+  </si>
+  <si>
+    <t>take sth into consideration</t>
+  </si>
+  <si>
+    <t>将...考虑进去</t>
+  </si>
+  <si>
+    <t>take sth into account</t>
+  </si>
+  <si>
+    <t>by means of ...</t>
+  </si>
+  <si>
+    <t>通过...手段</t>
+  </si>
+  <si>
+    <t>pay in cash</t>
+  </si>
+  <si>
+    <t>现金支付</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFF73131"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>make</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFF73131"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>up</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t> one's </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFF73131"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>mind to do sth</t>
+    </r>
+  </si>
+  <si>
+    <t>下决心，决定 下定决心做某事</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF3C464F"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>keep sb. company</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF3C464F"/>
+        <rFont val="PingFang SC"/>
+        <charset val="134"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <t>陪伴某人</t>
+  </si>
+  <si>
+    <t>make sense</t>
+  </si>
+  <si>
+    <t>有意义；有道理；讲得通</t>
+  </si>
+  <si>
+    <t>play a joke/jokes on sb</t>
+  </si>
+  <si>
+    <t>跟某人开玩笑</t>
+  </si>
+  <si>
+    <t>by means of</t>
+  </si>
+  <si>
+    <t>通过…方式；依靠，凭借</t>
+  </si>
+  <si>
+    <t>by way of</t>
+  </si>
+  <si>
+    <t>经由；当作</t>
+  </si>
+  <si>
+    <t>be under control to do sth</t>
+  </si>
+  <si>
+    <t>受控制...</t>
+  </si>
+  <si>
+    <t>wheelchair access</t>
+  </si>
+  <si>
+    <t>轮椅通道</t>
+  </si>
+  <si>
+    <t>have a good command of</t>
+  </si>
+  <si>
+    <t>精通</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF3C464F"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>at a discount</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF3C464F"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <t>打折扣</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9.75"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>They were selling everything</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.75"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.75"/>
+        <color rgb="FFCC0000"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>at</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.75"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.75"/>
+        <color rgb="FFCC0000"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>a</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.75"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.75"/>
+        <color rgb="FFCC0000"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>discount</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.75"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>at a bargain</t>
+  </si>
+  <si>
+    <t>一言为定；成交</t>
+  </si>
+  <si>
+    <t>sense of direction</t>
+  </si>
+  <si>
+    <t>方向感</t>
+  </si>
+  <si>
+    <t>make room for...</t>
+  </si>
+  <si>
+    <t>给...腾地方，让位于...</t>
+  </si>
+  <si>
+    <t>sign language</t>
+  </si>
+  <si>
+    <t>手语</t>
+  </si>
+  <si>
+    <t>have a beeter view</t>
+  </si>
+  <si>
+    <t>视野更佳</t>
+  </si>
+  <si>
+    <t>have a(n)...influence on/upon...</t>
+  </si>
+  <si>
+    <t>对...有影响</t>
+  </si>
+  <si>
+    <t>be under consideration</t>
+  </si>
+  <si>
+    <t>在审议中</t>
+  </si>
+  <si>
+    <t>hold ground</t>
+  </si>
+  <si>
+    <t>站得住脚</t>
+  </si>
+  <si>
+    <t>make sense of sth</t>
+  </si>
+  <si>
+    <t>弄懂</t>
+  </si>
+  <si>
+    <t>find fault with sth</t>
+  </si>
+  <si>
+    <t>找茬儿，对...挑刺儿</t>
+  </si>
+  <si>
+    <t>find favor with sb = be supported by sb</t>
+  </si>
+  <si>
+    <t>得宠于某人，得人好感，被人接受</t>
+  </si>
+  <si>
+    <t>take advantage of sth</t>
+  </si>
+  <si>
+    <t>利用sth</t>
+  </si>
+  <si>
+    <t>be in short supply</t>
+  </si>
+  <si>
+    <t>供应不足</t>
   </si>
 </sst>
 </file>
@@ -206,11 +940,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="33">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -233,22 +967,37 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="10.5"/>
+      <color rgb="FF3C464F"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10.5"/>
+      <color rgb="FF434343"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFF73131"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9.75"/>
+      <color rgb="FF333333"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -270,6 +1019,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
@@ -285,14 +1050,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -301,6 +1058,73 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -309,45 +1133,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
@@ -355,26 +1140,46 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <sz val="12"/>
+      <color rgb="FF3C464F"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF3C464F"/>
+      <name val="PingFang SC"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color rgb="FF3C464F"/>
+      <name val="PingFang SC"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF333333"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFF73131"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9.75"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9.75"/>
+      <color rgb="FFCC0000"/>
+      <name val="Arial"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="33">
@@ -392,7 +1197,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -404,25 +1317,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -434,7 +1335,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -446,115 +1359,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -566,7 +1371,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -577,15 +1382,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -622,6 +1418,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -633,32 +1444,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -677,129 +1462,149 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="26" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -808,36 +1613,60 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1159,235 +1988,1144 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="E3:F29"/>
+  <dimension ref="D1:G104"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" topLeftCell="A88" workbookViewId="0">
+      <selection activeCell="E101" sqref="E101"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="20.6" customHeight="1" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="20.6" customHeight="1" outlineLevelCol="6"/>
   <cols>
-    <col min="5" max="5" width="25.7410714285714" customWidth="1"/>
-    <col min="6" max="6" width="54.4553571428571" style="1" customWidth="1"/>
+    <col min="4" max="4" width="9.14285714285714" style="1"/>
+    <col min="5" max="5" width="42.7589285714286" customWidth="1"/>
+    <col min="6" max="6" width="39.5803571428571" style="2" customWidth="1"/>
+    <col min="7" max="7" width="61.1517857142857" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" customHeight="1" spans="5:6">
-      <c r="E3" s="2" t="s">
+    <row r="1" customHeight="1" spans="4:4">
+      <c r="D1" s="1">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="2" customHeight="1" spans="4:4">
+      <c r="D2" s="1">
         <v>0</v>
       </c>
-      <c r="F3" s="3" t="s">
+    </row>
+    <row r="3" customHeight="1" spans="4:6">
+      <c r="D3" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" customHeight="1" spans="5:6">
-      <c r="E4" s="2" t="s">
+      <c r="E3" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" customHeight="1" spans="4:6">
+      <c r="D4" s="1">
         <v>2</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="E4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F4" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" customHeight="1" spans="5:6">
-      <c r="E5" s="2" t="s">
+    <row r="5" customHeight="1" spans="4:6">
+      <c r="D5" s="1">
+        <v>3</v>
+      </c>
+      <c r="E5" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="F5" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="6" customHeight="1" spans="5:6">
-      <c r="E6" s="2" t="s">
+    <row r="6" customHeight="1" spans="4:6">
+      <c r="D6" s="1">
+        <v>4</v>
+      </c>
+      <c r="E6" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="F6" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="7" customHeight="1" spans="5:6">
-      <c r="E7" s="2" t="s">
+    <row r="7" customHeight="1" spans="4:6">
+      <c r="D7" s="1">
+        <v>5</v>
+      </c>
+      <c r="E7" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="F7" s="4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="8" customHeight="1" spans="5:6">
-      <c r="E8" s="2" t="s">
+    <row r="8" customHeight="1" spans="4:6">
+      <c r="D8" s="1">
+        <v>6</v>
+      </c>
+      <c r="E8" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="F8" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="9" customHeight="1" spans="5:6">
-      <c r="E9" s="2" t="s">
+    <row r="9" customHeight="1" spans="4:6">
+      <c r="D9" s="1">
+        <v>7</v>
+      </c>
+      <c r="E9" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F9" s="3" t="s">
+      <c r="F9" s="4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="10" customHeight="1" spans="5:6">
-      <c r="E10" s="2" t="s">
+    <row r="10" customHeight="1" spans="4:6">
+      <c r="D10" s="1">
+        <v>8</v>
+      </c>
+      <c r="E10" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F10" s="3" t="s">
+      <c r="F10" s="4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="11" customHeight="1" spans="5:6">
-      <c r="E11" s="2" t="s">
+    <row r="11" customHeight="1" spans="4:6">
+      <c r="D11" s="1">
+        <v>9</v>
+      </c>
+      <c r="E11" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F11" s="3" t="s">
+      <c r="F11" s="4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="12" customHeight="1" spans="5:6">
-      <c r="E12" s="2" t="s">
+    <row r="12" customHeight="1" spans="4:6">
+      <c r="D12" s="1">
+        <v>10</v>
+      </c>
+      <c r="E12" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F12" s="3" t="s">
+      <c r="F12" s="4" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="13" customHeight="1" spans="5:6">
-      <c r="E13" s="2" t="s">
+    <row r="13" customHeight="1" spans="4:6">
+      <c r="D13" s="1">
+        <v>11</v>
+      </c>
+      <c r="E13" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F13" s="3" t="s">
+      <c r="F13" s="4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="14" customHeight="1" spans="5:6">
-      <c r="E14" s="2" t="s">
+    <row r="14" customHeight="1" spans="4:6">
+      <c r="D14" s="1">
+        <v>12</v>
+      </c>
+      <c r="E14" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="F14" s="3" t="s">
+      <c r="F14" s="4" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="15" customHeight="1" spans="5:6">
-      <c r="E15" s="2" t="s">
+    <row r="15" customHeight="1" spans="4:6">
+      <c r="D15" s="1">
+        <v>13</v>
+      </c>
+      <c r="E15" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="F15" s="3" t="s">
+      <c r="F15" s="4" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="16" customHeight="1" spans="5:6">
-      <c r="E16" s="2" t="s">
+    <row r="16" customHeight="1" spans="4:6">
+      <c r="D16" s="1">
+        <v>14</v>
+      </c>
+      <c r="E16" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="F16" s="3" t="s">
+      <c r="F16" s="4" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="17" customHeight="1" spans="5:6">
-      <c r="E17" s="2" t="s">
+    <row r="17" customHeight="1" spans="4:6">
+      <c r="D17" s="1">
+        <v>15</v>
+      </c>
+      <c r="E17" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="F17" s="2" t="s">
+      <c r="F17" s="3" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="18" customHeight="1" spans="5:6">
-      <c r="E18" s="2" t="s">
+    <row r="18" customHeight="1" spans="4:6">
+      <c r="D18" s="1">
+        <v>16</v>
+      </c>
+      <c r="E18" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="F18" s="2" t="s">
+      <c r="F18" s="3" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="19" customHeight="1" spans="5:6">
-      <c r="E19" s="2" t="s">
+    <row r="19" customHeight="1" spans="4:6">
+      <c r="D19" s="1">
+        <v>17</v>
+      </c>
+      <c r="E19" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="F19" s="2" t="s">
+      <c r="F19" s="3" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="20" customHeight="1" spans="5:6">
-      <c r="E20" s="2" t="s">
+    <row r="20" customHeight="1" spans="4:6">
+      <c r="D20" s="1">
+        <v>18</v>
+      </c>
+      <c r="E20" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="F20" s="2" t="s">
+      <c r="F20" s="3" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="21" customHeight="1" spans="5:6">
-      <c r="E21" s="2" t="s">
+    <row r="21" customHeight="1" spans="4:6">
+      <c r="D21" s="1">
+        <v>19</v>
+      </c>
+      <c r="E21" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="F21" s="2" t="s">
+      <c r="F21" s="3" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="22" customHeight="1" spans="5:6">
-      <c r="E22" s="2" t="s">
+    <row r="22" customHeight="1" spans="4:6">
+      <c r="D22" s="1">
+        <v>20</v>
+      </c>
+      <c r="E22" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="F22" s="2" t="s">
+      <c r="F22" s="3" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="23" customHeight="1" spans="5:6">
-      <c r="E23" s="2" t="s">
+    <row r="23" customHeight="1" spans="4:6">
+      <c r="D23" s="1">
+        <v>21</v>
+      </c>
+      <c r="E23" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="F23" s="2" t="s">
+      <c r="F23" s="3" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="24" customHeight="1" spans="5:6">
-      <c r="E24" s="2" t="s">
+    <row r="24" customHeight="1" spans="4:6">
+      <c r="D24" s="1">
+        <v>22</v>
+      </c>
+      <c r="E24" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="F24" s="1" t="s">
+      <c r="F24" s="4" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="25" customHeight="1" spans="5:6">
-      <c r="E25" s="2" t="s">
+    <row r="25" customHeight="1" spans="4:6">
+      <c r="D25" s="1">
+        <v>23</v>
+      </c>
+      <c r="E25" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="F25" s="2" t="s">
+      <c r="F25" s="3" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="26" customHeight="1" spans="5:6">
-      <c r="E26" s="2" t="s">
+    <row r="26" customHeight="1" spans="4:6">
+      <c r="D26" s="1">
+        <v>24</v>
+      </c>
+      <c r="E26" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="F26" s="2" t="s">
+      <c r="F26" s="3" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="27" customHeight="1" spans="5:6">
-      <c r="E27" s="2" t="s">
+    <row r="27" customHeight="1" spans="4:6">
+      <c r="D27" s="1">
+        <v>25</v>
+      </c>
+      <c r="E27" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="F27" s="2" t="s">
+      <c r="F27" s="3" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="28" customHeight="1" spans="5:6">
-      <c r="E28" s="2" t="s">
+    <row r="28" customHeight="1" spans="4:6">
+      <c r="D28" s="1">
+        <v>26</v>
+      </c>
+      <c r="E28" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="F28" s="2" t="s">
+      <c r="F28" s="3" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="29" customHeight="1" spans="5:6">
-      <c r="E29" t="s">
+    <row r="29" customHeight="1" spans="4:6">
+      <c r="D29" s="1">
+        <v>27</v>
+      </c>
+      <c r="E29" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="F29" s="1" t="s">
+      <c r="F29" s="4" t="s">
         <v>53</v>
       </c>
     </row>
+    <row r="30" customHeight="1" spans="4:6">
+      <c r="D30" s="1">
+        <v>28</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="F30" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="31" customHeight="1" spans="4:6">
+      <c r="D31" s="1">
+        <v>29</v>
+      </c>
+      <c r="E31" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="F31" s="6" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="32" customHeight="1" spans="4:6">
+      <c r="D32" s="1">
+        <v>30</v>
+      </c>
+      <c r="E32" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="F32" s="6" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="33" customHeight="1" spans="4:6">
+      <c r="D33" s="1">
+        <v>31</v>
+      </c>
+      <c r="E33" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="F33" s="6" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="34" customHeight="1" spans="4:6">
+      <c r="D34" s="1">
+        <v>32</v>
+      </c>
+      <c r="E34" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="F34" s="6" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="35" customHeight="1" spans="4:6">
+      <c r="D35" s="1">
+        <v>33</v>
+      </c>
+      <c r="E35" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="F35" s="6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="36" customHeight="1" spans="4:6">
+      <c r="D36" s="1">
+        <v>34</v>
+      </c>
+      <c r="E36" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="F36" s="6" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="37" customHeight="1" spans="4:6">
+      <c r="D37" s="1">
+        <v>35</v>
+      </c>
+      <c r="E37" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="F37" s="6" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="38" customHeight="1" spans="4:6">
+      <c r="D38" s="1">
+        <v>36</v>
+      </c>
+      <c r="E38" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="F38" s="6" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="39" customHeight="1" spans="4:6">
+      <c r="D39" s="1">
+        <v>37</v>
+      </c>
+      <c r="E39" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="F39" s="6" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="40" customHeight="1" spans="4:6">
+      <c r="D40" s="1">
+        <v>38</v>
+      </c>
+      <c r="E40" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="F40" s="6" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="41" customHeight="1" spans="4:6">
+      <c r="D41" s="1">
+        <v>39</v>
+      </c>
+      <c r="E41" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="F41" s="4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="42" customHeight="1" spans="4:6">
+      <c r="D42" s="1">
+        <v>40</v>
+      </c>
+      <c r="E42" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="F42" s="4" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="43" customHeight="1" spans="4:6">
+      <c r="D43" s="1">
+        <v>41</v>
+      </c>
+      <c r="E43" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="F43" s="7" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="44" customHeight="1" spans="4:7">
+      <c r="D44" s="1">
+        <v>42</v>
+      </c>
+      <c r="E44" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="F44" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="G44" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="45" customHeight="1" spans="4:6">
+      <c r="D45" s="1">
+        <v>43</v>
+      </c>
+      <c r="E45" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="F45" s="8" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="46" customHeight="1" spans="4:6">
+      <c r="D46" s="1">
+        <v>44</v>
+      </c>
+      <c r="E46" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="F46" s="8" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="47" customHeight="1" spans="4:6">
+      <c r="D47" s="1">
+        <v>45</v>
+      </c>
+      <c r="E47" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="F47" s="8" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="48" customHeight="1" spans="4:6">
+      <c r="D48" s="1">
+        <v>46</v>
+      </c>
+      <c r="E48" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="F48" s="8" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="49" customHeight="1" spans="4:6">
+      <c r="D49" s="1">
+        <v>47</v>
+      </c>
+      <c r="E49" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="F49" s="8" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="50" customHeight="1" spans="4:6">
+      <c r="D50" s="1">
+        <v>48</v>
+      </c>
+      <c r="E50" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="F50" s="8" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="51" customHeight="1" spans="4:6">
+      <c r="D51" s="1">
+        <v>49</v>
+      </c>
+      <c r="E51" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="F51" s="8" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="52" customHeight="1" spans="4:6">
+      <c r="D52" s="1">
+        <v>50</v>
+      </c>
+      <c r="E52" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="F52" s="8" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="53" customHeight="1" spans="4:6">
+      <c r="D53" s="1">
+        <v>51</v>
+      </c>
+      <c r="E53" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="F53" s="8" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="54" customHeight="1" spans="4:6">
+      <c r="D54" s="1">
+        <v>52</v>
+      </c>
+      <c r="E54" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="F54" s="8" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="55" customHeight="1" spans="4:6">
+      <c r="D55" s="1">
+        <v>53</v>
+      </c>
+      <c r="E55" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="F55" s="8" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="56" customHeight="1" spans="4:6">
+      <c r="D56" s="1">
+        <v>54</v>
+      </c>
+      <c r="E56" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="F56" s="8" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="57" customHeight="1" spans="4:6">
+      <c r="D57" s="1">
+        <v>55</v>
+      </c>
+      <c r="E57" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="F57" s="8" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="58" customHeight="1" spans="4:6">
+      <c r="D58" s="1">
+        <v>56</v>
+      </c>
+      <c r="E58" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="F58" s="8" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="59" customHeight="1" spans="4:6">
+      <c r="D59" s="1">
+        <v>57</v>
+      </c>
+      <c r="E59" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="F59" s="8" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="60" customHeight="1" spans="4:6">
+      <c r="D60" s="1">
+        <v>58</v>
+      </c>
+      <c r="E60" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="F60" s="8" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="61" customHeight="1" spans="4:6">
+      <c r="D61" s="1">
+        <v>59</v>
+      </c>
+      <c r="E61" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="F61" s="8" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" customHeight="1" spans="4:6">
+      <c r="D62" s="1">
+        <v>60</v>
+      </c>
+      <c r="E62" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="F62" s="8" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="63" customHeight="1" spans="4:6">
+      <c r="D63" s="1">
+        <v>61</v>
+      </c>
+      <c r="E63" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="F63" s="8" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="64" customHeight="1" spans="4:6">
+      <c r="D64" s="1">
+        <v>62</v>
+      </c>
+      <c r="E64" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="F64" s="8" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="65" customHeight="1" spans="4:6">
+      <c r="D65" s="1">
+        <v>63</v>
+      </c>
+      <c r="E65" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="F65" s="8" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="66" customHeight="1" spans="4:6">
+      <c r="D66" s="1">
+        <v>64</v>
+      </c>
+      <c r="E66" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="F66" s="8" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="67" customHeight="1" spans="4:6">
+      <c r="D67" s="1">
+        <v>65</v>
+      </c>
+      <c r="E67" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="F67" s="8" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="68" customHeight="1" spans="4:6">
+      <c r="D68" s="1">
+        <v>66</v>
+      </c>
+      <c r="E68" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="F68" s="8" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="69" customHeight="1" spans="4:6">
+      <c r="D69" s="1">
+        <v>67</v>
+      </c>
+      <c r="E69" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="F69" s="8" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="70" customHeight="1" spans="4:6">
+      <c r="D70" s="1">
+        <v>68</v>
+      </c>
+      <c r="E70" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="F70" s="8" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="71" customHeight="1" spans="4:6">
+      <c r="D71" s="1">
+        <v>69</v>
+      </c>
+      <c r="E71" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="F71" s="8" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="72" customHeight="1" spans="4:6">
+      <c r="D72" s="1">
+        <v>70</v>
+      </c>
+      <c r="E72" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="F72" s="8" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="73" customHeight="1" spans="4:6">
+      <c r="D73" s="1">
+        <v>71</v>
+      </c>
+      <c r="E73" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="F73" s="4" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="74" customHeight="1" spans="4:6">
+      <c r="D74" s="1">
+        <v>72</v>
+      </c>
+      <c r="E74" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="F74" s="4" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="75" customHeight="1" spans="4:6">
+      <c r="D75" s="1">
+        <v>73</v>
+      </c>
+      <c r="E75" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="F75" s="4"/>
+    </row>
+    <row r="76" customHeight="1" spans="4:6">
+      <c r="D76" s="1">
+        <v>74</v>
+      </c>
+      <c r="E76" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="F76" s="4" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="77" customHeight="1" spans="4:6">
+      <c r="D77" s="1">
+        <v>75</v>
+      </c>
+      <c r="E77" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="F77" s="4" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="78" customHeight="1" spans="4:6">
+      <c r="D78" s="1">
+        <v>76</v>
+      </c>
+      <c r="E78" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="F78" s="10" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="79" customHeight="1" spans="4:6">
+      <c r="D79" s="1">
+        <v>77</v>
+      </c>
+      <c r="E79" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="F79" s="8" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="80" customHeight="1" spans="4:6">
+      <c r="D80" s="1">
+        <v>78</v>
+      </c>
+      <c r="E80" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="F80" s="8" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="81" customHeight="1" spans="4:6">
+      <c r="D81" s="1">
+        <v>79</v>
+      </c>
+      <c r="E81" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="F81" s="8" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="82" customHeight="1" spans="4:6">
+      <c r="D82" s="1">
+        <v>80</v>
+      </c>
+      <c r="E82" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="F82" s="8" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="83" customHeight="1" spans="4:6">
+      <c r="D83" s="1">
+        <v>81</v>
+      </c>
+      <c r="E83" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="F83" s="8" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="84" customHeight="1" spans="4:6">
+      <c r="D84" s="1">
+        <v>82</v>
+      </c>
+      <c r="E84" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="F84" s="8" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="85" customHeight="1" spans="4:6">
+      <c r="D85" s="1">
+        <v>83</v>
+      </c>
+      <c r="E85" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="F85" s="4" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="86" customHeight="1" spans="4:6">
+      <c r="D86" s="1">
+        <v>84</v>
+      </c>
+      <c r="E86" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="F86" s="8" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="87" customHeight="1" spans="4:7">
+      <c r="D87" s="1">
+        <v>85</v>
+      </c>
+      <c r="E87" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="F87" s="11" t="s">
+        <v>166</v>
+      </c>
+      <c r="G87" s="10" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="88" customHeight="1" spans="4:6">
+      <c r="D88" s="1">
+        <v>86</v>
+      </c>
+      <c r="E88" s="11" t="s">
+        <v>168</v>
+      </c>
+      <c r="F88" s="11" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="89" customHeight="1" spans="4:6">
+      <c r="D89" s="1">
+        <v>87</v>
+      </c>
+      <c r="E89" s="11" t="s">
+        <v>170</v>
+      </c>
+      <c r="F89" s="11" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="90" customHeight="1" spans="4:6">
+      <c r="D90" s="1">
+        <v>88</v>
+      </c>
+      <c r="E90" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="F90" s="4" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="91" customHeight="1" spans="4:6">
+      <c r="D91" s="1">
+        <v>89</v>
+      </c>
+      <c r="E91" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="F91" s="4" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="92" customHeight="1" spans="4:6">
+      <c r="D92" s="1">
+        <v>90</v>
+      </c>
+      <c r="E92" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="F92" s="4" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="93" customHeight="1" spans="4:6">
+      <c r="D93" s="1">
+        <v>91</v>
+      </c>
+      <c r="E93" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="F93" s="4" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="94" customHeight="1" spans="4:6">
+      <c r="D94" s="1">
+        <v>92</v>
+      </c>
+      <c r="E94" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="F94" s="4" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="95" customHeight="1" spans="4:6">
+      <c r="D95" s="1">
+        <v>93</v>
+      </c>
+      <c r="E95" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="F95" s="4" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="96" customHeight="1" spans="4:6">
+      <c r="D96" s="1">
+        <v>94</v>
+      </c>
+      <c r="E96" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="F96" s="4" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="97" customHeight="1" spans="4:6">
+      <c r="D97" s="1">
+        <v>95</v>
+      </c>
+      <c r="E97" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="F97" s="4" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="98" customHeight="1" spans="4:6">
+      <c r="D98" s="1">
+        <v>96</v>
+      </c>
+      <c r="E98" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="F98" s="4" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="99" customHeight="1" spans="4:6">
+      <c r="D99" s="1">
+        <v>97</v>
+      </c>
+      <c r="E99" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="F99" s="4" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="100" customHeight="1" spans="4:6">
+      <c r="D100" s="1">
+        <v>98</v>
+      </c>
+      <c r="E100" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="F100" s="4" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="101" customHeight="1" spans="4:6">
+      <c r="D101" s="1">
+        <v>99</v>
+      </c>
+      <c r="E101" s="5"/>
+      <c r="F101" s="4"/>
+    </row>
+    <row r="102" customHeight="1" spans="4:6">
+      <c r="D102" s="1">
+        <v>100</v>
+      </c>
+      <c r="E102" s="5"/>
+      <c r="F102" s="4"/>
+    </row>
+    <row r="103" customHeight="1" spans="4:6">
+      <c r="D103" s="1">
+        <v>101</v>
+      </c>
+      <c r="E103" s="5"/>
+      <c r="F103" s="4"/>
+    </row>
+    <row r="104" customHeight="1" spans="4:6">
+      <c r="D104" s="1">
+        <v>102</v>
+      </c>
+      <c r="E104" s="5"/>
+      <c r="F104" s="4"/>
+    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="F74:F75"/>
+  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
 </worksheet>
